--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_36_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_36_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.894069721448778, 5.352697418986212]</t>
+          <t>[4.8946019601582105, 5.35216518027678]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.1949263955670686, 0.04695581872560961]</t>
+          <t>[-0.19497781757720123, 0.04700724073574225]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.2243034221134603</v>
+        <v>0.2244971926671633</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2243034221134603</v>
+        <v>0.2244971926671633</v>
       </c>
       <c r="W2" t="n">
         <v>20.15595595595651</v>
